--- a/biology/Médecine/1358_en_santé_et_médecine/1358_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1358_en_santé_et_médecine/1358_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1358_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1358_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1358 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1358_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1358_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8 octobre : fondation de la maison-Dieu Saint-Yves à Rennes, par Eudon Le Bouteiller[1].
-Fondation à Marseille par Bernard Garnier de l'hôpital Saint-Jacques-de-Galice « pour accueillir les malades et enfants de sexe féminin », établissement qui sera réuni à l'hôpital du Saint-Esprit en 1592 [2].
-Fondation à Rouen, par l'archevêque Guillaume de Flavacourt, d'un hôpital « pour un petit nombre de pauvres étudiants », dit collège des Bons-Enfants[3].
-La fondation par l'empereur Charles IV de la station thermale de Carlsbad, aujourd'hui en Tchéquie, a été proposée sans preuve comme datant de 1358[4].
-Boccace achève son Décaméron, recueil dont les récits se déroulent en 1348 pendant la grande peste à Florence, qui s'ouvre sur un tableau détaillé de l'épidémie et qui rend compte avec précision de la façon dont les faits médicaux sont perçus, à ce tournant du Moyen Âge et de la Renaissance[5].
-Vers 1358 : fondation de l'hospice Sainte-Catherine (Ospedale di Santa Caterina) à Venise, en Italie, par Napoleone Tiberti, prieur des Hospitaliers[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 octobre : fondation de la maison-Dieu Saint-Yves à Rennes, par Eudon Le Bouteiller.
+Fondation à Marseille par Bernard Garnier de l'hôpital Saint-Jacques-de-Galice « pour accueillir les malades et enfants de sexe féminin », établissement qui sera réuni à l'hôpital du Saint-Esprit en 1592 .
+Fondation à Rouen, par l'archevêque Guillaume de Flavacourt, d'un hôpital « pour un petit nombre de pauvres étudiants », dit collège des Bons-Enfants.
+La fondation par l'empereur Charles IV de la station thermale de Carlsbad, aujourd'hui en Tchéquie, a été proposée sans preuve comme datant de 1358.
+Boccace achève son Décaméron, recueil dont les récits se déroulent en 1348 pendant la grande peste à Florence, qui s'ouvre sur un tableau détaillé de l'épidémie et qui rend compte avec précision de la façon dont les faits médicaux sont perçus, à ce tournant du Moyen Âge et de la Renaissance.
+Vers 1358 : fondation de l'hospice Sainte-Catherine (Ospedale di Santa Caterina) à Venise, en Italie, par Napoleone Tiberti, prieur des Hospitaliers.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1358_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1358_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parution du traité Des pouls, des causes, des syndromes et des traitements, du médecin chinois Zhu Danxi[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parution du traité Des pouls, des causes, des syndromes et des traitements, du médecin chinois Zhu Danxi.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1358_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1358_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zhu Zhenheng (né en 1281), médecin chinois, « chef de file du courant de l'entretien du yin[8] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zhu Zhenheng (né en 1281), médecin chinois, « chef de file du courant de l'entretien du yin ».</t>
         </is>
       </c>
     </row>
